--- a/公交导航/工作量.xlsx
+++ b/公交导航/工作量.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>分组</t>
   </si>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>换乘预览界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步行路段，节点标明方向。</t>
   </si>
   <si>
@@ -85,11 +81,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4天</t>
+    <t>0.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换乘预览。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线预览更新新样式和入口。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +594,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -598,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="40" customHeight="1">
@@ -610,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" ht="57" customHeight="1">
@@ -622,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" ht="24" customHeight="1">
@@ -633,6 +649,9 @@
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="42" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -643,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" ht="42" customHeight="1">
@@ -655,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="56" customHeight="1">
@@ -664,10 +683,10 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" ht="24" customHeight="1">
@@ -679,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" ht="24" customHeight="1">
@@ -688,10 +707,10 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="7" customFormat="1" ht="24" customHeight="1">
@@ -700,12 +719,21 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="8"/>
